--- a/Ethanol/Ethanol_Ave_SOOT_Mass_FRAC.xlsx
+++ b/Ethanol/Ethanol_Ave_SOOT_Mass_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F17BB83-70F1-4BD2-A455-75454EF64E0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{099C082F-FFC1-402D-B7B3-8F2F71498AFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11055" xr2:uid="{22AA5C13-6BA2-4728-98DA-22248CBC3520}"/>
+    <workbookView xWindow="25200" yWindow="-11550" windowWidth="16200" windowHeight="10980" xr2:uid="{22AA5C13-6BA2-4728-98DA-22248CBC3520}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.5329983205790762E-4</v>
+        <v>4.8067953460953299E-4</v>
       </c>
       <c r="C2">
-        <v>4.371559165846362E-5</v>
+        <v>5.0494901509791285E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.6624963613273496E-4</v>
+        <v>6.5011640300051356E-4</v>
       </c>
       <c r="C3">
-        <v>7.7727657607547717E-5</v>
+        <v>8.9570728986125843E-5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,10 +479,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.1338869128776614E-4</v>
+        <v>9.0242339133862379E-4</v>
       </c>
       <c r="C4">
-        <v>6.6629576496940451E-5</v>
+        <v>1.1683271374661019E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,10 +490,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.2345287841562286E-4</v>
+        <v>9.9772584565180453E-4</v>
       </c>
       <c r="C5">
-        <v>6.9835329637366311E-5</v>
+        <v>8.7188295333640118E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,10 +501,10 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.6387887471105299E-4</v>
+        <v>1.1814611354357136E-3</v>
       </c>
       <c r="C6">
-        <v>6.6012725573775084E-5</v>
+        <v>1.2560749309028634E-4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,10 +512,10 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1.7325510395039498E-4</v>
+        <v>7.3663169121815548E-4</v>
       </c>
       <c r="C7">
-        <v>7.7299035139329197E-5</v>
+        <v>1.0327964762419147E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -523,10 +523,10 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>8.3146759422740831E-5</v>
+        <v>3.0442092296115647E-4</v>
       </c>
       <c r="C8">
-        <v>5.7561296149109135E-5</v>
+        <v>6.2216542526922396E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,10 +534,10 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>7.7674291540075815E-5</v>
+        <v>2.0841068190618635E-4</v>
       </c>
       <c r="C9">
-        <v>4.8093948819845421E-5</v>
+        <v>6.0496816892790016E-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>3.0789870075207818E-5</v>
+        <v>6.2561995838032275E-5</v>
       </c>
       <c r="C10">
-        <v>4.2302641244260622E-5</v>
+        <v>5.1967464270601312E-5</v>
       </c>
     </row>
   </sheetData>
